--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392161.347057313</v>
+        <v>1390273.765540911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>220.9613460397789</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>88.37396379153448</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>48.59632837328137</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>150.1480190546136</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.252601227923032</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.39306372366522</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>101.5798714036936</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.389005322401392</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274221</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.5350431010596</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>51.03857167867172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,16 +2056,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W19" t="n">
-        <v>255.3303690930862</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>251.4037217274521</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>42.1800746301907</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>70.02468195576058</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>29.53698649363408</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>45.40012322653534</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689357</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.083041312479</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1408.083041312479</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1408.083041312479</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1022.294788714234</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.6828813766</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.6828813766</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4407,43 +4407,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2471.884402955341</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2471.884402955341</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2471.884402955341</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.115747685226</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2119.115747685226</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576.4643184947033</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>576.4643184947033</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3476790823676</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>576.4643184947033</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>576.4643184947033</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>576.4643184947033</v>
+        <v>496.5252400791543</v>
       </c>
       <c r="X7" t="n">
-        <v>576.4643184947033</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.4643184947033</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2539.514470837914</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2539.514470837914</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2539.514470837914</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2539.514470837914</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>2149.375138862102</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>209.3066720681752</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>62.41672457026485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>62.41672457026485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822477</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5045,46 +5045,46 @@
         <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170066</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570731</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570731</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>592.5368061590558</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>371.7442270155257</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149466</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170066</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765192</v>
       </c>
       <c r="V16" t="n">
-        <v>844.028040127399</v>
+        <v>531.3977182706324</v>
       </c>
       <c r="W16" t="n">
-        <v>792.4739273206599</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>564.4843764226426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.4843764226426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.5778132641557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247856</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247856</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>706.2262780943954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>706.2262780943954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>706.2262780943954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V22" t="n">
-        <v>933.9780037752275</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>644.5608337382669</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>416.5712828402495</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.9398668627132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>289.9398668627132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>139.8232274503775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>139.8232274503775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030231</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228583</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1428.184268582387</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1139.055629795945</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V28" t="n">
-        <v>884.3711415900585</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>594.953971553098</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X28" t="n">
-        <v>594.953971553098</v>
+        <v>97.217091460286</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.953971553098</v>
+        <v>97.21709146028591</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708667</v>
+        <v>439.532429954218</v>
       </c>
       <c r="C31" t="n">
-        <v>581.925775678307</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473421</v>
+        <v>280.4984019778478</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463198</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818947</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818947</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197355</v>
+        <v>565.420029503087</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222968</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083213</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045219</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,52 +6932,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504517</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,10 +7637,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,28 +7649,28 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>38.86002301949802</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571165</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949806</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>19.14409596997086</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231146</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>213.2603911806622</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.62661940943673</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>283.6093329825497</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>85.30006332127833</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.29693708087767</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338533</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>235.4844266579193</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W19" t="n">
-        <v>31.19262924350482</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7339215963758647</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>103.2409733927406</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338491</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.5228791026286</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338581</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>82.5065779764366</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.01209316311998</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>945598.6813359332</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>983502.0675940802</v>
+        <v>983502.0675940801</v>
       </c>
     </row>
     <row r="12">
@@ -26317,43 +26317,43 @@
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="F2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="H2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="H2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="K2" t="n">
-        <v>447504.351079797</v>
+        <v>447504.3510797971</v>
       </c>
       <c r="L2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>451572.9734253563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="O2" t="n">
         <v>451572.9734253561</v>
       </c>
-      <c r="M2" t="n">
-        <v>451572.9734253561</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451572.9734253561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>451572.9734253562</v>
-      </c>
       <c r="P2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007416</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732803</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685189</v>
+        <v>-369171.0325685188</v>
       </c>
       <c r="C6" t="n">
         <v>220796.8466460257</v>
@@ -26528,37 +26528,37 @@
         <v>220796.8466460256</v>
       </c>
       <c r="E6" t="n">
-        <v>-194932.1283701406</v>
+        <v>-195029.5874961129</v>
       </c>
       <c r="F6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="G6" t="n">
-        <v>330227.9081067557</v>
+        <v>330130.4489807838</v>
       </c>
       <c r="H6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807833</v>
       </c>
       <c r="I6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807832</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141626</v>
+        <v>153707.2297881905</v>
       </c>
       <c r="K6" t="n">
-        <v>280632.1830765245</v>
+        <v>280613.6893385903</v>
       </c>
       <c r="L6" t="n">
         <v>313179.441907136</v>
       </c>
       <c r="M6" t="n">
-        <v>188721.3334741657</v>
+        <v>188721.3334741658</v>
       </c>
       <c r="N6" t="n">
-        <v>323522.3487080028</v>
+        <v>323522.3487080029</v>
       </c>
       <c r="O6" t="n">
-        <v>323522.3487080028</v>
+        <v>323522.3487080027</v>
       </c>
       <c r="P6" t="n">
         <v>279359.7434051571</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108349</v>
+        <v>12.92863350108363</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9146997019325</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>17.64056718375429</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>167.8519919843764</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>136.1338551873642</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.270397108668</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3407779398153</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>149.6442961045957</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7818835193937</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067506</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29512,13 +29512,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.11447583114008e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>189.4354616074374</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>80.7702019744048</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>301.507798211079</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081887</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366866</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>299.884324365461</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>490.7027479140744</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,13 +38102,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
